--- a/biology/Médecine/Fracture_basilaire_du_crâne/Fracture_basilaire_du_crâne.xlsx
+++ b/biology/Médecine/Fracture_basilaire_du_crâne/Fracture_basilaire_du_crâne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fracture_basilaire_du_cr%C3%A2ne</t>
+          <t>Fracture_basilaire_du_crâne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une fracture basilaire du crâne est une fracture d'un os à la base du crâne [1]. Les symptômes peuvent inclure des ecchymoses derrière les oreilles, des ecchymoses autour des yeux ou du sang derrière le tympan [1]. Une fuite de liquide céphalorachidien (LCR) se produit dans environ 20 % des cas et peut entraîner une fuite de liquide du nez ou de l'oreille [1]. La méningite est une complication dans environ 14 % des cas [2]. D'autres complications incluent des lésions du nerf crânien ou des vaisseaux sanguins [1].
-Ils ont généralement un degré niveau élevé de traumatisme pour se produire [1]. La fracture est localisée au moins un des os suivants : os temporal, os occipital, os sphénoïde, os frontal ou os ethmoïde [1]. Elles sont divisées en fractures de la fosse antérieure, de la fosse moyenne et de la fosse postérieure [1]. Des fractures du visage surviennent également souvent [1]. Le diagnostic est généralement posé sur le scanner [1].
-Le traitement repose généralement à réparer les structures internes de la tête [1]. La chirurgie est indiquée en cas de fuite du liquide céphalo-rachidien (LCR) qui n’est pas contrôlée ou en cas de lésion d'un vaisseau sanguin ou d'un nerf [1]. L’utilité des antibiotiques préventifs n’est pas claire [3],[2]. Cela survient chez environ 12 % des personnes souffrant d’un traumatisme crânien grave [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une fracture basilaire du crâne est une fracture d'un os à la base du crâne . Les symptômes peuvent inclure des ecchymoses derrière les oreilles, des ecchymoses autour des yeux ou du sang derrière le tympan . Une fuite de liquide céphalorachidien (LCR) se produit dans environ 20 % des cas et peut entraîner une fuite de liquide du nez ou de l'oreille . La méningite est une complication dans environ 14 % des cas . D'autres complications incluent des lésions du nerf crânien ou des vaisseaux sanguins .
+Ils ont généralement un degré niveau élevé de traumatisme pour se produire . La fracture est localisée au moins un des os suivants : os temporal, os occipital, os sphénoïde, os frontal ou os ethmoïde . Elles sont divisées en fractures de la fosse antérieure, de la fosse moyenne et de la fosse postérieure . Des fractures du visage surviennent également souvent . Le diagnostic est généralement posé sur le scanner .
+Le traitement repose généralement à réparer les structures internes de la tête . La chirurgie est indiquée en cas de fuite du liquide céphalo-rachidien (LCR) qui n’est pas contrôlée ou en cas de lésion d'un vaisseau sanguin ou d'un nerf . L’utilité des antibiotiques préventifs n’est pas claire ,. Cela survient chez environ 12 % des personnes souffrant d’un traumatisme crânien grave .
 </t>
         </is>
       </c>
